--- a/data/trans_orig/OLA_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/OLA_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14C89B17-981F-4530-A29F-600BE6271037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D001832E-F81A-4456-A181-B09E427D6C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E0C7D74B-1355-4A63-A849-01D9224FC9B5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5A5CF3B8-31FF-4F3B-86DD-B4AF1E489F93}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Ola 5 Primavera</t>
@@ -221,7 +221,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>2,97%</t>
@@ -356,7 +356,7 @@
     <t>18,89%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>3,31%</t>
@@ -494,7 +494,7 @@
     <t>20,42%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>6,4%</t>
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393C655F-73E2-465A-8688-C19F55836E05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E3024B-D7A6-4417-B07C-6CC884B9D487}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
